--- a/raw/necropsy/20251010_r7_GR_LN-obex_Nano-QuIC.xlsx
+++ b/raw/necropsy/20251010_r7_GR_LN-obex_Nano-QuIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\Projects\usda-validation\raw\necropsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26B2B4-A7CD-4673-B722-71081123ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E713E-53E2-42B5-8C32-D357F06E8FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{CBF04419-7B91-4FE9-B0BF-4E6885F29074}"/>
+    <workbookView xWindow="-14505" yWindow="105" windowWidth="14610" windowHeight="15585" xr2:uid="{CBF04419-7B91-4FE9-B0BF-4E6885F29074}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="159">
   <si>
     <t>User: USER</t>
   </si>
@@ -518,24 +518,6 @@
   <si>
     <t>3. Dilutions</t>
   </si>
-  <si>
-    <t>1942_RPLN</t>
-  </si>
-  <si>
-    <t>1941_RPLN</t>
-  </si>
-  <si>
-    <t>1944_RPLN</t>
-  </si>
-  <si>
-    <t>Y-18_RPLN</t>
-  </si>
-  <si>
-    <t>B-109_RAMALT</t>
-  </si>
-  <si>
-    <t>B-109_OBEX</t>
-  </si>
 </sst>
 </file>
 
@@ -763,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,10 +803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,7 +1140,7 @@
   <dimension ref="A3:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:M34"/>
+      <selection activeCell="C27" sqref="C27:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,38 +1614,38 @@
       <c r="B27" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>145</v>
+      <c r="C27" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E27" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F27" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G27" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H27" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I27" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J27" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L27" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M27" s="13">
+        <v>2297</v>
       </c>
       <c r="O27" s="21"/>
     </row>
@@ -1678,38 +1656,38 @@
       <c r="B28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" t="s">
-        <v>162</v>
-      </c>
-      <c r="J28" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>145</v>
+      <c r="C28" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D28" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F28" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G28" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H28" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I28" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J28" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K28" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L28" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M28" s="13">
+        <v>2297</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1719,38 +1697,38 @@
       <c r="B29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" t="s">
-        <v>162</v>
-      </c>
-      <c r="J29" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>145</v>
+      <c r="C29" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D29" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F29" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G29" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H29" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I29" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J29" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K29" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L29" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M29" s="13">
+        <v>2297</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1760,38 +1738,38 @@
       <c r="B30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" t="s">
-        <v>162</v>
-      </c>
-      <c r="I30" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>145</v>
+      <c r="C30" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D30" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E30" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F30" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G30" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H30" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I30" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J30" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K30" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L30" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M30" s="13">
+        <v>2297</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1801,38 +1779,38 @@
       <c r="B31" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I31" t="s">
-        <v>162</v>
-      </c>
-      <c r="J31" t="s">
-        <v>163</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>145</v>
+      <c r="C31" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D31" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E31" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F31" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G31" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H31" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I31" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J31" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K31" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L31" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M31" s="13">
+        <v>2297</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1842,38 +1820,38 @@
       <c r="B32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>145</v>
+      <c r="C32" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D32" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G32" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H32" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I32" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J32" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K32" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L32" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M32" s="13">
+        <v>2297</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1883,38 +1861,38 @@
       <c r="B33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" t="s">
-        <v>163</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>145</v>
+      <c r="C33" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D33" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E33" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F33" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G33" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H33" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I33" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J33" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K33" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L33" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M33" s="13">
+        <v>2297</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -1924,38 +1902,38 @@
       <c r="B34" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>145</v>
+      <c r="C34" s="22">
+        <v>2001</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E34" s="22">
+        <v>2003</v>
+      </c>
+      <c r="F34" s="22">
+        <v>2004</v>
+      </c>
+      <c r="G34" s="22">
+        <v>2005</v>
+      </c>
+      <c r="H34" s="22">
+        <v>2006</v>
+      </c>
+      <c r="I34" s="22">
+        <v>2007</v>
+      </c>
+      <c r="J34" s="22">
+        <v>2008</v>
+      </c>
+      <c r="K34" s="12">
+        <v>2009</v>
+      </c>
+      <c r="L34" s="12">
+        <v>2296</v>
+      </c>
+      <c r="M34" s="13">
+        <v>2297</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
